--- a/data/trans_orig/P41D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Edad-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>2844</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5510</v>
+        <v>5836</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.415302101943087</v>
+        <v>0.4153021019430871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.107272058433121</v>
+        <v>0.1144838682577938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8046888880992075</v>
+        <v>0.8524019569913849</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>2844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>494</v>
+        <v>561</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6642</v>
+        <v>7063</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2415191173970286</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04197992510424295</v>
+        <v>0.04763888956409253</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5641025195709347</v>
+        <v>0.5998629064554639</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>4003</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1311</v>
+        <v>1018</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6113</v>
+        <v>6063</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5846978980569129</v>
+        <v>0.584697898056913</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1914438396725179</v>
+        <v>0.1487374490846922</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8927279415668791</v>
+        <v>0.8855161317422062</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -838,19 +838,19 @@
         <v>8930</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5133</v>
+        <v>4711</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11301</v>
+        <v>11213</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7584808826029714</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4359355074407217</v>
+        <v>0.4001370935445365</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9598120346883704</v>
+        <v>0.9523611104359074</v>
       </c>
     </row>
     <row r="6">
@@ -945,16 +945,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4512</v>
+        <v>4539</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2290557848543573</v>
+        <v>0.2290557848543574</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.818736019808209</v>
+        <v>0.8236840182751071</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3075</v>
+        <v>3078</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1564349253017447</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6109776421462727</v>
+        <v>0.6114889875378117</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5069</v>
+        <v>5812</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1943914750485011</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4807552890043928</v>
+        <v>0.5512646496789118</v>
       </c>
     </row>
     <row r="8">
@@ -1013,16 +1013,16 @@
         <v>4249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>5511</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7709442151456425</v>
+        <v>0.7709442151456426</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1812639801917909</v>
+        <v>0.1884769923798425</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,16 +1034,16 @@
         <v>4246</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>5033</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8435650746982553</v>
+        <v>0.8435650746982554</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3884790733947325</v>
+        <v>0.3883047967208488</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1055,16 +1055,16 @@
         <v>8494</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5474</v>
+        <v>4731</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>10543</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.805608524951499</v>
+        <v>0.8056085249514989</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5192447109956089</v>
+        <v>0.4487353503210882</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1311,16 +1311,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6305</v>
+        <v>6131</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08907864004972729</v>
+        <v>0.08907864004972728</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4449293567574725</v>
+        <v>0.4326676233035622</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1329,19 +1329,19 @@
         <v>3631</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1137</v>
+        <v>804</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7167</v>
+        <v>6864</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3056370857670518</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0956913238435765</v>
+        <v>0.06771678849977691</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6032664253426726</v>
+        <v>0.5777709102159907</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1350,19 +1350,19 @@
         <v>4893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1521</v>
+        <v>1614</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9908</v>
+        <v>10089</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1878380836554621</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05840139744656048</v>
+        <v>0.06196749173355762</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3803628276665241</v>
+        <v>0.3872939146200574</v>
       </c>
     </row>
     <row r="14">
@@ -1379,7 +1379,7 @@
         <v>12908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7865</v>
+        <v>8039</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>14170</v>
@@ -1388,7 +1388,7 @@
         <v>0.9109213599502727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5550706432425395</v>
+        <v>0.5673323766964378</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1400,19 +1400,19 @@
         <v>8249</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4713</v>
+        <v>5016</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10743</v>
+        <v>11076</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6943629142329483</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3967335746573267</v>
+        <v>0.4222290897840092</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9043086761564232</v>
+        <v>0.9322832115002229</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1421,19 +1421,19 @@
         <v>21157</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16142</v>
+        <v>15961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24529</v>
+        <v>24436</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.812161916344538</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6196371723334757</v>
+        <v>0.6127060853799424</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9415986025534391</v>
+        <v>0.9380325082664424</v>
       </c>
     </row>
     <row r="15">
